--- a/KetQuaTest_LoginServlet.xlsx
+++ b/KetQuaTest_LoginServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -35,77 +35,90 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>SERV_03</t>
+  </si>
+  <si>
+    <t>Servlet: Sai mật khẩu</t>
+  </si>
+  <si>
+    <t>User: user, Pass: wrong</t>
+  </si>
+  <si>
+    <t>1. Mock User CÓ tồn tại
+2. Service trả FAILED_CREDENTIALS</t>
+  </si>
+  <si>
+    <t>Báo lỗi 'Mật khẩu không chính xác'</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>SERV_01</t>
   </si>
   <si>
     <t>Servlet: Đăng nhập Admin thành công</t>
   </si>
   <si>
-    <t>1. Mock Req/Service trả về Admin
-2. Reflection gọi doPost</t>
-  </si>
-  <si>
     <t>User: admin, Pass: 123</t>
   </si>
   <si>
-    <t>Redirect đến Dashboard.jsp</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>LOGIN_02</t>
-  </si>
-  <si>
-    <t>Đăng nhập sai mật khẩu</t>
-  </si>
-  <si>
-    <t>1. Mock sai credentials
-2. Service trả FAILED
-3. Gọi doPost</t>
-  </si>
-  <si>
-    <t>user=wrong, pass=wrong</t>
-  </si>
-  <si>
-    <t>Báo lỗi login + redirect Login.jsp</t>
-  </si>
-  <si>
-    <t>LOGIN_04</t>
-  </si>
-  <si>
-    <t>User login → Quay lại trang cũ</t>
-  </si>
-  <si>
-    <t>1. Mock user
-2. Có redirectAfterLogin
-3. Service trả SUCCESS_USER</t>
-  </si>
-  <si>
-    <t>oldUrl=/cart.jsp</t>
-  </si>
-  <si>
-    <t>Redirect đúng oldUrl</t>
-  </si>
-  <si>
-    <t>LOGIN_03</t>
-  </si>
-  <si>
-    <t>User login → Trang chủ</t>
-  </si>
-  <si>
-    <t>1. Mock user
-2. Session ko có redirectUrl
-3. Service SUCCESS_USER</t>
-  </si>
-  <si>
-    <t>user=user, pass=123</t>
+    <t>1. Mock User tồn tại
+2. Mock Service trả về Admin</t>
+  </si>
+  <si>
+    <t>Redirect đến Dashboard</t>
+  </si>
+  <si>
+    <t>SERV_02</t>
+  </si>
+  <si>
+    <t>Servlet: Tài khoản không tồn tại</t>
+  </si>
+  <si>
+    <t>User: not_exist</t>
+  </si>
+  <si>
+    <t>1. Mock User KHÔNG tồn tại (DAO return false)
+2. Check lỗi</t>
+  </si>
+  <si>
+    <t>Báo lỗi 'Tài khoản không tồn tại'</t>
+  </si>
+  <si>
+    <t>SERV_05</t>
+  </si>
+  <si>
+    <t>User login -&gt; Trang chủ</t>
+  </si>
+  <si>
+    <t>User: user</t>
+  </si>
+  <si>
+    <t>1. Mock User tồn tại
+2. Service SUCCESS_USER</t>
   </si>
   <si>
     <t>Redirect /user/view-products</t>
+  </si>
+  <si>
+    <t>SERV_04</t>
+  </si>
+  <si>
+    <t>Servlet: Quyền không hợp lệ</t>
+  </si>
+  <si>
+    <t>User: banned_user</t>
+  </si>
+  <si>
+    <t>1. Mock User CÓ tồn tại
+2. Service trả FAILED_INVALID_ROLE</t>
+  </si>
+  <si>
+    <t>Báo lỗi 'Quyền truy cập không hợp lệ'</t>
   </si>
 </sst>
 </file>
@@ -183,17 +196,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.10546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.3515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.46484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.4921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.87109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.19921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="34.4375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -313,6 +326,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
